--- a/r/working_with_excel/Daily Household Transactions.xlsx
+++ b/r/working_with_excel/Daily Household Transactions.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\code-for-articles\r\working_with_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\RStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB86354A-8E36-4FCB-860D-078BE7CD4528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37053833-3944-437F-927C-A70422AA6BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905CC0EF-469A-4413-B095-DEB932AA479E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily Household Transactions" sheetId="1" r:id="rId1"/>
+    <sheet name="All Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4458,7 +4458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE0E637-D64C-4FC5-9282-4F3F63C0C9F7}">
   <dimension ref="A1:H2462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/r/working_with_excel/Daily Household Transactions.xlsx
+++ b/r/working_with_excel/Daily Household Transactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\RStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\code-for-articles\r\working_with_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37053833-3944-437F-927C-A70422AA6BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E7061B-9EAE-482D-B0B5-CDAE335FD0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{905CC0EF-469A-4413-B095-DEB932AA479E}"/>
+    <workbookView xWindow="4248" yWindow="1632" windowWidth="12720" windowHeight="8352" xr2:uid="{905CC0EF-469A-4413-B095-DEB932AA479E}"/>
   </bookViews>
   <sheets>
     <sheet name="All Transactions" sheetId="1" r:id="rId1"/>
@@ -4459,10 +4459,19 @@
   <dimension ref="A1:H2462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
